--- a/海运单批量导入模板.xlsx
+++ b/海运单批量导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FBBDAA-0E88-472D-BD2D-D2C356712999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D256E2B-7B4E-4D05-8339-BCCB89CA68C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
   <si>
     <t>海运合同编号</t>
   </si>
@@ -56,12 +48,6 @@
     <t>卸箱工厂</t>
   </si>
   <si>
-    <t>集装箱号</t>
-  </si>
-  <si>
-    <t>铅封号</t>
-  </si>
-  <si>
     <t>理货员</t>
   </si>
   <si>
@@ -139,9 +125,6 @@
     <t>JZX9</t>
   </si>
   <si>
-    <t>JZX10</t>
-  </si>
-  <si>
     <t>QF1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,9 +153,6 @@
     <t>QF9</t>
   </si>
   <si>
-    <t>QF10</t>
-  </si>
-  <si>
     <t>王五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +166,54 @@
   </si>
   <si>
     <t>老北车队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集装箱号1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铅封号1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集装箱号2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铅封号2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理货费用备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车队管理名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZX11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QF11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZX12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QF13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -528,17 +556,20 @@
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.0703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.35546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.92578125" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.35546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,616 +592,600 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="1">
         <v>44932</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2">
         <v>100</v>
       </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2">
-        <v>500</v>
-      </c>
       <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2">
+        <v>500</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2">
         <v>3000</v>
       </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2">
-        <v>500</v>
-      </c>
-      <c r="R2">
-        <f>K2+M2+O2+Q2</f>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2">
+        <v>500</v>
+      </c>
+      <c r="V2">
+        <f>M2+Q2+S2+U2</f>
         <v>4100</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>SUM(A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="1">
         <v>44933</v>
       </c>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3">
         <v>100</v>
       </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>500</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3">
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3">
+        <v>500</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3">
         <v>3000</v>
       </c>
-      <c r="P3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3">
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3">
         <v>600</v>
       </c>
-      <c r="R3">
-        <f>K3+M3+O3+Q3</f>
+      <c r="V3">
+        <f>M3+Q3+S3+U3</f>
         <v>4200</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">SUM(A3+1)</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
         <v>44934</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4">
         <v>100</v>
       </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4">
-        <v>500</v>
-      </c>
       <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4">
+        <v>500</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4">
         <v>3000</v>
       </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4">
-        <v>500</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ref="R3:R11" si="1">K4+M4+O4+Q4</f>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4">
+        <v>500</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V11" si="1">M4+Q4+S4+U4</f>
         <v>4100</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>44935</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5">
         <v>100</v>
       </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5">
-        <v>500</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5">
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5">
+        <v>500</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5">
         <v>3000</v>
       </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5">
-        <v>500</v>
-      </c>
-      <c r="R5">
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5">
+        <v>500</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1">
         <v>44936</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6">
         <v>100</v>
       </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6">
-        <v>500</v>
-      </c>
       <c r="N6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6">
+        <v>500</v>
+      </c>
+      <c r="R6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6">
         <v>3000</v>
       </c>
-      <c r="P6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6">
-        <v>500</v>
-      </c>
-      <c r="R6">
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6">
+        <v>500</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>44937</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7">
         <v>100</v>
       </c>
-      <c r="L7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7">
-        <v>500</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7">
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7">
+        <v>500</v>
+      </c>
+      <c r="R7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7">
         <v>3000</v>
       </c>
-      <c r="P7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7">
-        <v>500</v>
-      </c>
-      <c r="R7">
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7">
+        <v>500</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>44938</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
         <v>40</v>
       </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8">
+      <c r="M8">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>500</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8">
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8">
+        <v>500</v>
+      </c>
+      <c r="R8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8">
         <v>3000</v>
       </c>
-      <c r="P8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8">
-        <v>500</v>
-      </c>
-      <c r="R8">
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8">
+        <v>500</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>44939</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s">
         <v>41</v>
       </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9">
-        <v>500</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9">
+      <c r="Q9">
+        <v>500</v>
+      </c>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9">
         <v>3000</v>
       </c>
-      <c r="P9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9">
-        <v>500</v>
-      </c>
-      <c r="R9">
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9">
+        <v>500</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1">
         <v>44940</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10">
+        <v>500</v>
+      </c>
+      <c r="R10" t="s">
         <v>42</v>
       </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10">
-        <v>100</v>
-      </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10">
-        <v>500</v>
-      </c>
-      <c r="N10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10">
+      <c r="S10">
         <v>3000</v>
       </c>
-      <c r="P10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10">
-        <v>500</v>
-      </c>
-      <c r="R10">
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10">
+        <v>500</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="1"/>
         <v>4100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <f>SUM(A10+1)</f>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1">
-        <v>44941</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11">
-        <v>200</v>
-      </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11">
-        <v>500</v>
-      </c>
-      <c r="N11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11">
-        <v>3000</v>
-      </c>
-      <c r="P11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11">
-        <v>500</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="1"/>
-        <v>4200</v>
       </c>
     </row>
   </sheetData>

--- a/海运单批量导入模板.xlsx
+++ b/海运单批量导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D256E2B-7B4E-4D05-8339-BCCB89CA68C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27A7495-B7D0-469E-9443-90729D74DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
   <si>
     <t>海运合同编号</t>
   </si>
@@ -39,9 +39,6 @@
     <t>委托方</t>
   </si>
   <si>
-    <t>装箱日期</t>
-  </si>
-  <si>
     <t>装箱地点</t>
   </si>
   <si>
@@ -57,24 +54,12 @@
     <t>起运承运车队</t>
   </si>
   <si>
-    <t>起运承运车队费用</t>
-  </si>
-  <si>
     <t>承运船公司</t>
   </si>
   <si>
-    <t>承运船公司费用</t>
-  </si>
-  <si>
     <t>目的港承运车队</t>
   </si>
   <si>
-    <t>目的港承运车队费用</t>
-  </si>
-  <si>
-    <t>总费用</t>
-  </si>
-  <si>
     <t>WL1</t>
   </si>
   <si>
@@ -193,14 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WL2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WL3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JZX11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +191,38 @@
   </si>
   <si>
     <t>QF13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装箱日期（格式为xxxx-xx-xx）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起运承运车队费用(元)（只可保留2位小数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承运船公司费用(元)（只可保留2位小数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的港承运车队费用(元)（只可保留2位小数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总费用(元)（只可保留2位小数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +243,30 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -260,9 +293,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -546,644 +587,676 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.0703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.92578125" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.35546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.92578125" customWidth="1"/>
+    <col min="3" max="3" width="29.640625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.2109375" customWidth="1"/>
+    <col min="12" max="12" width="13.2109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="25.5" customWidth="1"/>
+    <col min="15" max="15" width="18.0703125" customWidth="1"/>
+    <col min="16" max="16" width="24.35546875" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" customWidth="1"/>
+    <col min="18" max="18" width="18.92578125" customWidth="1"/>
+    <col min="19" max="19" width="39.2109375" customWidth="1"/>
+    <col min="20" max="20" width="22.35546875" customWidth="1"/>
+    <col min="21" max="21" width="40.78515625" customWidth="1"/>
+    <col min="22" max="22" width="29.640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" t="s">
-        <v>15</v>
+      <c r="U1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5">
+        <v>44932</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44932</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2">
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4">
         <v>100</v>
       </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2">
-        <v>500</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2">
+      <c r="N2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>500</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="4">
         <v>3000</v>
       </c>
-      <c r="T2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2">
-        <v>500</v>
-      </c>
-      <c r="V2">
+      <c r="T2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="4">
+        <v>500</v>
+      </c>
+      <c r="V2" s="4">
         <f>M2+Q2+S2+U2</f>
         <v>4100</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="4">
         <f>SUM(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5">
+        <v>44933</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44933</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3">
+      <c r="I3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="4">
         <v>100</v>
       </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3">
-        <v>500</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>500</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="4">
         <v>3000</v>
       </c>
-      <c r="T3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3">
+      <c r="T3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="4">
         <v>600</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="4">
         <f>M3+Q3+S3+U3</f>
         <v>4200</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="4">
         <f t="shared" ref="A4:A10" si="0">SUM(A3+1)</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5">
+        <v>44934</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1">
-        <v>44934</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4">
+      <c r="I4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="4">
         <v>100</v>
       </c>
-      <c r="N4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4">
-        <v>500</v>
-      </c>
-      <c r="R4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4">
+      <c r="N4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>500</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="4">
         <v>3000</v>
       </c>
-      <c r="T4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4">
-        <v>500</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V11" si="1">M4+Q4+S4+U4</f>
+      <c r="T4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="4">
+        <v>500</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ref="V4:V10" si="1">M4+Q4+S4+U4</f>
         <v>4100</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5">
+        <v>44935</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44935</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5">
+      <c r="I5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="4">
         <v>100</v>
       </c>
-      <c r="P5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5">
-        <v>500</v>
-      </c>
-      <c r="R5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>500</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="4">
         <v>3000</v>
       </c>
-      <c r="T5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5">
-        <v>500</v>
-      </c>
-      <c r="V5">
+      <c r="T5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="4">
+        <v>500</v>
+      </c>
+      <c r="V5" s="4">
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5">
+        <v>44936</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44936</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>100</v>
       </c>
-      <c r="N6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6">
-        <v>500</v>
-      </c>
-      <c r="R6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6">
+      <c r="N6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>500</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="4">
         <v>3000</v>
       </c>
-      <c r="T6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6">
-        <v>500</v>
-      </c>
-      <c r="V6">
+      <c r="T6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="4">
+        <v>500</v>
+      </c>
+      <c r="V6" s="4">
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
         <v>44937</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="4">
+        <v>100</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7">
-        <v>100</v>
-      </c>
-      <c r="P7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7">
-        <v>500</v>
-      </c>
-      <c r="R7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7">
+      <c r="Q7" s="4">
+        <v>500</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="4">
         <v>3000</v>
       </c>
-      <c r="T7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7">
-        <v>500</v>
-      </c>
-      <c r="V7">
+      <c r="T7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="4">
+        <v>500</v>
+      </c>
+      <c r="V7" s="4">
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
         <v>44938</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="4">
+        <v>100</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>500</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8">
-        <v>100</v>
-      </c>
-      <c r="P8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8">
-        <v>500</v>
-      </c>
-      <c r="R8" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>3000</v>
       </c>
-      <c r="T8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8">
-        <v>500</v>
-      </c>
-      <c r="V8">
+      <c r="T8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="4">
+        <v>500</v>
+      </c>
+      <c r="V8" s="4">
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5">
+        <v>44939</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1">
-        <v>44939</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="4">
+        <v>100</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>500</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="4">
+        <v>3000</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9">
-        <v>100</v>
-      </c>
-      <c r="P9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9">
-        <v>500</v>
-      </c>
-      <c r="R9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9">
-        <v>3000</v>
-      </c>
-      <c r="T9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9">
-        <v>500</v>
-      </c>
-      <c r="V9">
+      <c r="U9" s="4">
+        <v>500</v>
+      </c>
+      <c r="V9" s="4">
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5">
+        <v>44940</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1">
-        <v>44940</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10">
+      <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="4">
         <v>100</v>
       </c>
-      <c r="P10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10">
-        <v>500</v>
-      </c>
-      <c r="R10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>500</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="4">
         <v>3000</v>
       </c>
-      <c r="T10" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10">
-        <v>500</v>
-      </c>
-      <c r="V10">
+      <c r="T10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="4">
+        <v>500</v>
+      </c>
+      <c r="V10" s="4">
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>

--- a/海运单批量导入模板.xlsx
+++ b/海运单批量导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\Documents\WeChat Files\wxid_guhg739bsw8421\FileStorage\File\2023-02\导入模版\导入模版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A75846F-1A7B-4016-8489-607FE28D9C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C71D60-D869-42FF-BAAE-2E612DFDF67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,19 +269,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -561,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>

--- a/海运单批量导入模板.xlsx
+++ b/海运单批量导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C71D60-D869-42FF-BAAE-2E612DFDF67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A288948C-7D5A-4604-B24F-8AFE972A322F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>海运合同编号</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>目的港承运车队</t>
-  </si>
-  <si>
-    <t>HY1548654/样例，导入前删除本行</t>
-  </si>
-  <si>
-    <t>WL7569166</t>
   </si>
   <si>
     <t>广西丰沣顺国际物流有限公司</t>
@@ -151,6 +145,30 @@
   </si>
   <si>
     <t>总费用(元)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>净重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WL1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HY1548654</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -269,19 +287,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.149999999999999" x14ac:dyDescent="0.35"/>
@@ -578,160 +600,181 @@
     <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.2109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.2109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="25.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.0703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="24.35546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="37.42578125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="18.92578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="39.2109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="22.35546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="40.78515625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="29.640625" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="12" max="15" width="12.2109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.2109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="25.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.0703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="24.35546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="37.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="18.92578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="39.2109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.35546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="40.78515625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="29.640625" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="324" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:26" ht="324" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="V1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" ht="40.299999999999997" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="4">
+        <v>100.2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>100.3</v>
+      </c>
+      <c r="O2" s="4">
+        <v>100.3</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="S2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="3">
-        <v>100.5</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="U2" s="3">
+        <v>500</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="W2" s="3">
+        <v>3000</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="3">
+      <c r="Y2" s="3">
         <v>500</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="3">
-        <v>3000</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="3">
-        <v>500</v>
-      </c>
-      <c r="W2" s="3">
-        <f>N2+R2+T2+V2</f>
+      <c r="Z2" s="3">
+        <f>Q2+U2+W2+Y2</f>
         <v>4100.5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3Q0Dj4c7uYU1PivmEtuIrT1OO0ZV5QDG8PEbQ5BX2eKwJnuTpqGDXwLjlscBe2IrK6d9Em2RykX30MUCz14Nfg==" saltValue="wetTrjRqWcYm1wsaNpH6ow==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mZSiTmp80twjb+s7fJY/jrAnrVmAJpvt2yX6nnEixywqHTycLbVykZMClAvKMe2a3CjkkeySDMfrQL8D92J+DA==" saltValue="03GCfHzA3SvMyKy5cKUiCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
